--- a/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Assumption_Report.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Assumption_Report.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 08/08/22 6:01:26 PM</t>
+    <t>Printed on: 08/09/22 10:16:02 AM</t>
   </si>
   <si>
     <t>Deposit Account Models</t>
@@ -455,13 +455,25 @@
     <t xml:space="preserve">  LOANS</t>
   </si>
   <si>
+    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Commercial and industrial loans</t>
+  </si>
+  <si>
+    <t>CPR/THC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Secured by farmland (including farm residential and other improvements)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    1-4 family residential construction loans</t>
   </si>
   <si>
     <t xml:space="preserve">    Other construction loans and all land development and other land loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Secured by farmland (including farm residential and other improvements)</t>
   </si>
   <si>
     <t xml:space="preserve">    Revolving, open-end loans secured by 1-4 family residential properties and extended under lines of credit</t>
@@ -479,22 +491,10 @@
     <t xml:space="preserve">    Loans secured by other nonfarm nonresidential properties</t>
   </si>
   <si>
-    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Commercial and industrial loans</t>
-  </si>
-  <si>
-    <t>CPR/THC</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Automobile loans</t>
   </si>
   <si>
     <t xml:space="preserve">    Other consumer loans (includes single payment, installment, and all student loans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.</t>
   </si>
   <si>
     <t xml:space="preserve">  Total LOANS</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">    U.S. Treasury securities</t>
   </si>
   <si>
-    <t xml:space="preserve">    Issued by U.S. Government agencies</t>
+    <t xml:space="preserve">    Securities issued by states and political subdivisions in the U.S.</t>
   </si>
   <si>
-    <t xml:space="preserve">    Securities issued by states and political subdivisions in the U.S.</t>
+    <t xml:space="preserve">    Issued by U.S. Government agencies</t>
   </si>
   <si>
     <t xml:space="preserve">    Guaranteed by GNMA</t>
@@ -608,6 +608,9 @@
     <t xml:space="preserve">      U.S. Treasury securities</t>
   </si>
   <si>
+    <t xml:space="preserve">      Securities issued by states and political subdivisions in the U.S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">      U.S. Government agency obligations (exclude mortgage-backed securities)</t>
   </si>
   <si>
@@ -615,9 +618,6 @@
   </si>
   <si>
     <t xml:space="preserve">      Total U.S. Government agency obligations (exclude mortgage-backed securities)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Securities issued by states and political subdivisions in the U.S.</t>
   </si>
   <si>
     <t xml:space="preserve">      Mortgage-backed securities (MBS)</t>
@@ -653,7 +653,19 @@
     <t xml:space="preserve">    Loans and lease financing receivables</t>
   </si>
   <si>
+    <t xml:space="preserve">      Loans to finance agricultural production and other loans to farmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Commercial and industrial loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Obligations (other than securities and leases) of states and political subdivisions in the U.S.</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Loans secured by real estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Secured by farmland (including farm residential and other improvements)</t>
   </si>
   <si>
     <t xml:space="preserve">        Construction, land development, and other land loans</t>
@@ -666,9 +678,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Total Construction, land development, and other land loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Secured by farmland (including farm residential and other improvements)</t>
   </si>
   <si>
     <t xml:space="preserve">        Secured by 1-4 family residential properties</t>
@@ -707,12 +716,6 @@
     <t xml:space="preserve">      Total Loans secured by real estate</t>
   </si>
   <si>
-    <t xml:space="preserve">      Loans to finance agricultural production and other loans to farmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Commercial and industrial loans</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Loans to individuals for household, family, and other personal expenditures (i.e., consumer loans) (includes purchased paper)</t>
   </si>
   <si>
@@ -723,9 +726,6 @@
   </si>
   <si>
     <t xml:space="preserve">      Total Loans to individuals for household, family, and other personal expenditures (i.e., consumer loans) (includes purchased paper)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Obligations (other than securities and leases) of states and political subdivisions in the U.S.</t>
   </si>
   <si>
     <t xml:space="preserve">    Total Loans and lease financing receivables</t>
@@ -62190,143 +62190,143 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="317" t="s">
+      <c r="A13" s="232" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="315"/>
-      <c r="C13" s="318"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="315"/>
-      <c r="K13" s="315"/>
-      <c r="L13" s="320"/>
-      <c r="M13" s="320"/>
+      <c r="B13" s="321">
+        <v>0</v>
+      </c>
+      <c r="C13" s="321">
+        <v>1.7153980264191528</v>
+      </c>
+      <c r="D13" s="321">
+        <v>2.7806696901851717</v>
+      </c>
+      <c r="E13" s="321">
+        <v>2.9941716308974375</v>
+      </c>
+      <c r="F13" s="321">
+        <v>3.0135593102732758</v>
+      </c>
+      <c r="G13" s="321">
+        <v>3.0449989614582695</v>
+      </c>
+      <c r="H13" s="321">
+        <v>2.9762762239125444</v>
+      </c>
+      <c r="I13" s="321">
+        <v>3.4745520713185041</v>
+      </c>
+      <c r="J13" s="321">
+        <v>3.0887587773069218</v>
+      </c>
+      <c r="K13" s="321">
+        <v>0</v>
+      </c>
+      <c r="L13" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="288" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="232" t="s">
+      <c r="A14" s="317" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="321">
-        <v>0</v>
-      </c>
-      <c r="C14" s="321">
+      <c r="B14" s="315"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="318"/>
+      <c r="G14" s="318"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="320"/>
+      <c r="M14" s="320"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="232" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="321">
+        <v>0</v>
+      </c>
+      <c r="C15" s="321">
         <v>1.7153980264191528</v>
       </c>
-      <c r="D14" s="321">
+      <c r="D15" s="321">
         <v>2.7806696901851717</v>
       </c>
-      <c r="E14" s="321">
+      <c r="E15" s="321">
         <v>2.9941716308974375</v>
       </c>
-      <c r="F14" s="321">
+      <c r="F15" s="321">
         <v>3.0135593102732758</v>
       </c>
-      <c r="G14" s="321">
+      <c r="G15" s="321">
         <v>3.0449989614582695</v>
       </c>
-      <c r="H14" s="321">
+      <c r="H15" s="321">
         <v>2.9762762239125444</v>
       </c>
-      <c r="I14" s="321">
+      <c r="I15" s="321">
         <v>3.4745520713185041</v>
       </c>
-      <c r="J14" s="321">
+      <c r="J15" s="321">
         <v>3.0887587773069218</v>
       </c>
-      <c r="K14" s="321">
-        <v>0</v>
-      </c>
-      <c r="L14" s="288" t="s">
+      <c r="K15" s="321">
+        <v>0</v>
+      </c>
+      <c r="L15" s="288" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="288" t="s">
+      <c r="M15" s="288" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="317" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="322">
-        <v>0</v>
-      </c>
-      <c r="C15" s="322">
+    <row r="16">
+      <c r="A16" s="317" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="322">
+        <v>0</v>
+      </c>
+      <c r="C16" s="322">
         <v>1.7153980264191528</v>
       </c>
-      <c r="D15" s="322">
+      <c r="D16" s="322">
         <v>2.7806696901851717</v>
       </c>
-      <c r="E15" s="322">
+      <c r="E16" s="322">
         <v>2.9941716308974375</v>
       </c>
-      <c r="F15" s="322">
+      <c r="F16" s="322">
         <v>3.0135593102732758</v>
       </c>
-      <c r="G15" s="322">
+      <c r="G16" s="322">
         <v>3.0449989614582695</v>
       </c>
-      <c r="H15" s="322">
+      <c r="H16" s="322">
         <v>2.9762762239125444</v>
       </c>
-      <c r="I15" s="322">
+      <c r="I16" s="322">
         <v>3.4745520713185041</v>
       </c>
-      <c r="J15" s="322">
+      <c r="J16" s="322">
         <v>3.0887587773069218</v>
       </c>
-      <c r="K15" s="322">
-        <v>0</v>
-      </c>
-      <c r="L15" s="323" t="s">
+      <c r="K16" s="322">
+        <v>0</v>
+      </c>
+      <c r="L16" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="323" t="s">
+      <c r="M16" s="323" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="232" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="321">
-        <v>0</v>
-      </c>
-      <c r="C16" s="321">
-        <v>1.7153980264191528</v>
-      </c>
-      <c r="D16" s="321">
-        <v>2.7806696901851717</v>
-      </c>
-      <c r="E16" s="321">
-        <v>2.9941716308974375</v>
-      </c>
-      <c r="F16" s="321">
-        <v>3.0135593102732758</v>
-      </c>
-      <c r="G16" s="321">
-        <v>3.0449989614582695</v>
-      </c>
-      <c r="H16" s="321">
-        <v>2.9762762239125444</v>
-      </c>
-      <c r="I16" s="321">
-        <v>3.4745520713185041</v>
-      </c>
-      <c r="J16" s="321">
-        <v>3.0887587773069218</v>
-      </c>
-      <c r="K16" s="321">
-        <v>0</v>
-      </c>
-      <c r="L16" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M16" s="288" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -62644,69 +62644,117 @@
       <c r="M26" s="320"/>
     </row>
     <row r="27">
-      <c r="A27" s="317" t="s">
+      <c r="A27" s="232" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="315"/>
-      <c r="C27" s="318"/>
-      <c r="D27" s="315"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="318"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="315"/>
-      <c r="K27" s="315"/>
-      <c r="L27" s="320"/>
-      <c r="M27" s="320"/>
+      <c r="B27" s="321">
+        <v>0.98698313999999987</v>
+      </c>
+      <c r="C27" s="321">
+        <v>2.7023811664191526</v>
+      </c>
+      <c r="D27" s="321">
+        <v>3.7676528301851717</v>
+      </c>
+      <c r="E27" s="321">
+        <v>3.9811547708974375</v>
+      </c>
+      <c r="F27" s="321">
+        <v>4.0005424502732758</v>
+      </c>
+      <c r="G27" s="321">
+        <v>4.0319821014582695</v>
+      </c>
+      <c r="H27" s="321">
+        <v>3.9632593639125444</v>
+      </c>
+      <c r="I27" s="321">
+        <v>4.4615352113185036</v>
+      </c>
+      <c r="J27" s="321">
+        <v>4.0757419173069218</v>
+      </c>
+      <c r="K27" s="321">
+        <v>0.2</v>
+      </c>
+      <c r="L27" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="288" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="317" t="s">
+      <c r="A28" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="315"/>
-      <c r="C28" s="318"/>
-      <c r="D28" s="315"/>
-      <c r="E28" s="319"/>
-      <c r="F28" s="318"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="319"/>
-      <c r="I28" s="319"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="320"/>
-      <c r="M28" s="320"/>
+      <c r="B28" s="321">
+        <v>1.08974456707485</v>
+      </c>
+      <c r="C28" s="321">
+        <v>2.8051425934940029</v>
+      </c>
+      <c r="D28" s="321">
+        <v>3.8704142572600215</v>
+      </c>
+      <c r="E28" s="321">
+        <v>4.0839161979722878</v>
+      </c>
+      <c r="F28" s="321">
+        <v>4.1033038773481261</v>
+      </c>
+      <c r="G28" s="321">
+        <v>4.13474352853312</v>
+      </c>
+      <c r="H28" s="321">
+        <v>4.0660207909873947</v>
+      </c>
+      <c r="I28" s="321">
+        <v>4.5642966383933539</v>
+      </c>
+      <c r="J28" s="321">
+        <v>4.1785033443817721</v>
+      </c>
+      <c r="K28" s="321">
+        <v>0.19990532544378697</v>
+      </c>
+      <c r="L28" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="288" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="232" t="s">
         <v>192</v>
       </c>
       <c r="B29" s="321">
-        <v>1.2796556799999999</v>
+        <v>1.10294872</v>
       </c>
       <c r="C29" s="321">
-        <v>2.9950537064191529</v>
+        <v>2.8183467464191532</v>
       </c>
       <c r="D29" s="321">
-        <v>4.060325370185172</v>
+        <v>3.8836184101851718</v>
       </c>
       <c r="E29" s="321">
-        <v>4.2738273108974374</v>
+        <v>4.0971203508974376</v>
       </c>
       <c r="F29" s="321">
-        <v>4.2932149902732757</v>
+        <v>4.1165080302732759</v>
       </c>
       <c r="G29" s="321">
-        <v>4.3246546414582694</v>
+        <v>4.14794768145827</v>
       </c>
       <c r="H29" s="321">
-        <v>4.2559319039125443</v>
+        <v>4.0792249439125445</v>
       </c>
       <c r="I29" s="321">
-        <v>4.7542077513185035</v>
+        <v>4.5775007913185046</v>
       </c>
       <c r="J29" s="321">
-        <v>4.3684144573069217</v>
+        <v>4.1917074973069219</v>
       </c>
       <c r="K29" s="321">
         <v>0.2</v>
@@ -62719,175 +62767,151 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="232" t="s">
+      <c r="A30" s="317" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="321">
+      <c r="B30" s="315"/>
+      <c r="C30" s="318"/>
+      <c r="D30" s="315"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="318"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="319"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="315"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="320"/>
+      <c r="M30" s="320"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="232" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="321">
+        <v>0.98921631</v>
+      </c>
+      <c r="C31" s="321">
+        <v>2.7046143364191528</v>
+      </c>
+      <c r="D31" s="321">
+        <v>3.7698860001851715</v>
+      </c>
+      <c r="E31" s="321">
+        <v>3.9833879408974378</v>
+      </c>
+      <c r="F31" s="321">
+        <v>4.002775620273276</v>
+      </c>
+      <c r="G31" s="321">
+        <v>4.03421527145827</v>
+      </c>
+      <c r="H31" s="321">
+        <v>3.9654925339125446</v>
+      </c>
+      <c r="I31" s="321">
+        <v>4.4637683813185038</v>
+      </c>
+      <c r="J31" s="321">
+        <v>4.077975087306922</v>
+      </c>
+      <c r="K31" s="321">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="288" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="317" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="315"/>
+      <c r="C32" s="318"/>
+      <c r="D32" s="315"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="319"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="315"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="320"/>
+      <c r="M32" s="320"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="232" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="321">
         <v>1.2796556799999999</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C33" s="321">
         <v>2.9950537064191529</v>
       </c>
-      <c r="D30" s="321">
+      <c r="D33" s="321">
         <v>4.060325370185172</v>
       </c>
-      <c r="E30" s="321">
+      <c r="E33" s="321">
         <v>4.2738273108974374</v>
       </c>
-      <c r="F30" s="321">
+      <c r="F33" s="321">
         <v>4.2932149902732757</v>
       </c>
-      <c r="G30" s="321">
+      <c r="G33" s="321">
         <v>4.3246546414582694</v>
       </c>
-      <c r="H30" s="321">
+      <c r="H33" s="321">
         <v>4.2559319039125443</v>
       </c>
-      <c r="I30" s="321">
+      <c r="I33" s="321">
         <v>4.7542077513185035</v>
       </c>
-      <c r="J30" s="321">
+      <c r="J33" s="321">
         <v>4.3684144573069217</v>
       </c>
-      <c r="K30" s="321">
+      <c r="K33" s="321">
         <v>0.2</v>
       </c>
-      <c r="L30" s="288" t="s">
+      <c r="L33" s="288" t="s">
         <v>169</v>
       </c>
-      <c r="M30" s="288" t="s">
+      <c r="M33" s="288" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="317" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="322">
-        <v>1.2796556799999999</v>
-      </c>
-      <c r="C31" s="322">
-        <v>2.9950537064191529</v>
-      </c>
-      <c r="D31" s="322">
-        <v>4.060325370185172</v>
-      </c>
-      <c r="E31" s="322">
-        <v>4.2738273108974374</v>
-      </c>
-      <c r="F31" s="322">
-        <v>4.2932149902732757</v>
-      </c>
-      <c r="G31" s="322">
-        <v>4.3246546414582694</v>
-      </c>
-      <c r="H31" s="322">
-        <v>4.2559319039125443</v>
-      </c>
-      <c r="I31" s="322">
-        <v>4.7542077513185035</v>
-      </c>
-      <c r="J31" s="322">
-        <v>4.3684144573069217</v>
-      </c>
-      <c r="K31" s="322">
-        <v>0.2</v>
-      </c>
-      <c r="L31" s="323" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="323" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="232" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="321">
-        <v>0.98921631</v>
-      </c>
-      <c r="C32" s="321">
-        <v>2.7046143364191528</v>
-      </c>
-      <c r="D32" s="321">
-        <v>3.7698860001851715</v>
-      </c>
-      <c r="E32" s="321">
-        <v>3.9833879408974378</v>
-      </c>
-      <c r="F32" s="321">
-        <v>4.002775620273276</v>
-      </c>
-      <c r="G32" s="321">
-        <v>4.03421527145827</v>
-      </c>
-      <c r="H32" s="321">
-        <v>3.9654925339125446</v>
-      </c>
-      <c r="I32" s="321">
-        <v>4.4637683813185038</v>
-      </c>
-      <c r="J32" s="321">
-        <v>4.077975087306922</v>
-      </c>
-      <c r="K32" s="321">
-        <v>0.2</v>
-      </c>
-      <c r="L32" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="288" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="317" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="315"/>
-      <c r="C33" s="318"/>
-      <c r="D33" s="315"/>
-      <c r="E33" s="319"/>
-      <c r="F33" s="318"/>
-      <c r="G33" s="318"/>
-      <c r="H33" s="319"/>
-      <c r="I33" s="319"/>
-      <c r="J33" s="315"/>
-      <c r="K33" s="315"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
     </row>
     <row r="34">
       <c r="A34" s="232" t="s">
         <v>197</v>
       </c>
       <c r="B34" s="321">
-        <v>1.3604910700000001</v>
+        <v>1.2796556799999999</v>
       </c>
       <c r="C34" s="321">
-        <v>3.0758890964191528</v>
+        <v>2.9950537064191529</v>
       </c>
       <c r="D34" s="321">
-        <v>4.1411607601851719</v>
+        <v>4.060325370185172</v>
       </c>
       <c r="E34" s="321">
-        <v>4.3546627008974372</v>
+        <v>4.2738273108974374</v>
       </c>
       <c r="F34" s="321">
-        <v>4.3740503802732764</v>
+        <v>4.2932149902732757</v>
       </c>
       <c r="G34" s="321">
-        <v>4.4054900314582692</v>
+        <v>4.3246546414582694</v>
       </c>
       <c r="H34" s="321">
-        <v>4.3367672939125441</v>
+        <v>4.2559319039125443</v>
       </c>
       <c r="I34" s="321">
-        <v>4.8350431413185042</v>
+        <v>4.7542077513185035</v>
       </c>
       <c r="J34" s="321">
-        <v>4.4492498473069215</v>
+        <v>4.3684144573069217</v>
       </c>
       <c r="K34" s="321">
         <v>0.2</v>
@@ -62903,59 +62927,59 @@
       <c r="A35" s="317" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="315"/>
-      <c r="C35" s="318"/>
-      <c r="D35" s="315"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="318"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="319"/>
-      <c r="J35" s="315"/>
-      <c r="K35" s="315"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
+      <c r="B35" s="322">
+        <v>1.2796556799999999</v>
+      </c>
+      <c r="C35" s="322">
+        <v>2.9950537064191529</v>
+      </c>
+      <c r="D35" s="322">
+        <v>4.060325370185172</v>
+      </c>
+      <c r="E35" s="322">
+        <v>4.2738273108974374</v>
+      </c>
+      <c r="F35" s="322">
+        <v>4.2932149902732757</v>
+      </c>
+      <c r="G35" s="322">
+        <v>4.3246546414582694</v>
+      </c>
+      <c r="H35" s="322">
+        <v>4.2559319039125443</v>
+      </c>
+      <c r="I35" s="322">
+        <v>4.7542077513185035</v>
+      </c>
+      <c r="J35" s="322">
+        <v>4.3684144573069217</v>
+      </c>
+      <c r="K35" s="322">
+        <v>0.2</v>
+      </c>
+      <c r="L35" s="323" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="323" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="232" t="s">
+      <c r="A36" s="317" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="321">
-        <v>0.96088714</v>
-      </c>
-      <c r="C36" s="321">
-        <v>2.6762851664191527</v>
-      </c>
-      <c r="D36" s="321">
-        <v>3.7415568301851718</v>
-      </c>
-      <c r="E36" s="321">
-        <v>3.9550587708974376</v>
-      </c>
-      <c r="F36" s="321">
-        <v>3.9744464502732759</v>
-      </c>
-      <c r="G36" s="321">
-        <v>4.00588610145827</v>
-      </c>
-      <c r="H36" s="321">
-        <v>3.9371633639125445</v>
-      </c>
-      <c r="I36" s="321">
-        <v>4.4354392113185037</v>
-      </c>
-      <c r="J36" s="321">
-        <v>4.0496459173069219</v>
-      </c>
-      <c r="K36" s="321">
-        <v>0.2</v>
-      </c>
-      <c r="L36" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M36" s="288" t="s">
-        <v>182</v>
-      </c>
+      <c r="B36" s="315"/>
+      <c r="C36" s="318"/>
+      <c r="D36" s="315"/>
+      <c r="E36" s="319"/>
+      <c r="F36" s="318"/>
+      <c r="G36" s="318"/>
+      <c r="H36" s="319"/>
+      <c r="I36" s="319"/>
+      <c r="J36" s="315"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="320"/>
+      <c r="M36" s="320"/>
     </row>
     <row r="37">
       <c r="A37" s="232" t="s">
@@ -63002,263 +63026,239 @@
       <c r="A38" s="317" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="322">
+      <c r="B38" s="315"/>
+      <c r="C38" s="318"/>
+      <c r="D38" s="315"/>
+      <c r="E38" s="319"/>
+      <c r="F38" s="318"/>
+      <c r="G38" s="318"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="315"/>
+      <c r="K38" s="315"/>
+      <c r="L38" s="320"/>
+      <c r="M38" s="320"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="232" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="321">
+        <v>0.96088714</v>
+      </c>
+      <c r="C39" s="321">
+        <v>2.6762851664191527</v>
+      </c>
+      <c r="D39" s="321">
+        <v>3.7415568301851718</v>
+      </c>
+      <c r="E39" s="321">
+        <v>3.9550587708974376</v>
+      </c>
+      <c r="F39" s="321">
+        <v>3.9744464502732759</v>
+      </c>
+      <c r="G39" s="321">
+        <v>4.00588610145827</v>
+      </c>
+      <c r="H39" s="321">
+        <v>3.9371633639125445</v>
+      </c>
+      <c r="I39" s="321">
+        <v>4.4354392113185037</v>
+      </c>
+      <c r="J39" s="321">
+        <v>4.0496459173069219</v>
+      </c>
+      <c r="K39" s="321">
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="288" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="232" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="321">
+        <v>1.3604910700000001</v>
+      </c>
+      <c r="C40" s="321">
+        <v>3.0758890964191528</v>
+      </c>
+      <c r="D40" s="321">
+        <v>4.1411607601851719</v>
+      </c>
+      <c r="E40" s="321">
+        <v>4.3546627008974372</v>
+      </c>
+      <c r="F40" s="321">
+        <v>4.3740503802732764</v>
+      </c>
+      <c r="G40" s="321">
+        <v>4.4054900314582692</v>
+      </c>
+      <c r="H40" s="321">
+        <v>4.3367672939125441</v>
+      </c>
+      <c r="I40" s="321">
+        <v>4.8350431413185042</v>
+      </c>
+      <c r="J40" s="321">
+        <v>4.4492498473069215</v>
+      </c>
+      <c r="K40" s="321">
+        <v>0.2</v>
+      </c>
+      <c r="L40" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="288" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="317" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="322">
         <v>0.96433213656506866</v>
       </c>
-      <c r="C38" s="322">
+      <c r="C41" s="322">
         <v>2.6797301629842214</v>
       </c>
-      <c r="D38" s="322">
+      <c r="D41" s="322">
         <v>3.7450018267502405</v>
       </c>
-      <c r="E38" s="322">
+      <c r="E41" s="322">
         <v>3.9585037674625063</v>
       </c>
-      <c r="F38" s="322">
+      <c r="F41" s="322">
         <v>3.9778914468383446</v>
       </c>
-      <c r="G38" s="322">
+      <c r="G41" s="322">
         <v>4.0093310980233383</v>
       </c>
-      <c r="H38" s="322">
+      <c r="H41" s="322">
         <v>3.9406083604776132</v>
       </c>
-      <c r="I38" s="322">
+      <c r="I41" s="322">
         <v>4.4388842078835724</v>
       </c>
-      <c r="J38" s="322">
+      <c r="J41" s="322">
         <v>4.0530909138719906</v>
       </c>
-      <c r="K38" s="322">
+      <c r="K41" s="322">
         <v>0.2</v>
       </c>
-      <c r="L38" s="323" t="s">
+      <c r="L41" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="323" t="s">
+      <c r="M41" s="323" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="317" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="322">
+    <row r="42">
+      <c r="A42" s="317" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="322">
         <v>0.97479004816544568</v>
       </c>
-      <c r="C39" s="322">
+      <c r="C42" s="322">
         <v>2.6901880745845985</v>
       </c>
-      <c r="D39" s="322">
+      <c r="D42" s="322">
         <v>3.7554597383506172</v>
       </c>
-      <c r="E39" s="322">
+      <c r="E42" s="322">
         <v>3.9689616790628834</v>
       </c>
-      <c r="F39" s="322">
+      <c r="F42" s="322">
         <v>3.9883493584387217</v>
       </c>
-      <c r="G39" s="322">
+      <c r="G42" s="322">
         <v>4.0197890096237154</v>
       </c>
-      <c r="H39" s="322">
+      <c r="H42" s="322">
         <v>3.9510662720779903</v>
       </c>
-      <c r="I39" s="322">
+      <c r="I42" s="322">
         <v>4.4493421194839495</v>
       </c>
-      <c r="J39" s="322">
+      <c r="J42" s="322">
         <v>4.0635488254723677</v>
       </c>
-      <c r="K39" s="322">
+      <c r="K42" s="322">
         <v>0.2</v>
       </c>
-      <c r="L39" s="323" t="s">
+      <c r="L42" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="323" t="s">
+      <c r="M42" s="323" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="317" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="315"/>
-      <c r="C40" s="318"/>
-      <c r="D40" s="315"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="318"/>
-      <c r="G40" s="318"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="319"/>
-      <c r="J40" s="315"/>
-      <c r="K40" s="315"/>
-      <c r="L40" s="320"/>
-      <c r="M40" s="320"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="232" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" s="321">
-        <v>0.98921631</v>
-      </c>
-      <c r="C41" s="321">
-        <v>2.7046143364191528</v>
-      </c>
-      <c r="D41" s="321">
-        <v>3.7698860001851715</v>
-      </c>
-      <c r="E41" s="321">
-        <v>3.9833879408974378</v>
-      </c>
-      <c r="F41" s="321">
-        <v>4.002775620273276</v>
-      </c>
-      <c r="G41" s="321">
-        <v>4.03421527145827</v>
-      </c>
-      <c r="H41" s="321">
-        <v>3.9654925339125446</v>
-      </c>
-      <c r="I41" s="321">
-        <v>4.4637683813185038</v>
-      </c>
-      <c r="J41" s="321">
-        <v>4.077975087306922</v>
-      </c>
-      <c r="K41" s="321">
-        <v>0.2</v>
-      </c>
-      <c r="L41" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M41" s="288" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="232" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" s="321">
-        <v>0.98921631</v>
-      </c>
-      <c r="C42" s="321">
-        <v>2.7046143364191528</v>
-      </c>
-      <c r="D42" s="321">
-        <v>3.7698860001851715</v>
-      </c>
-      <c r="E42" s="321">
-        <v>3.9833879408974378</v>
-      </c>
-      <c r="F42" s="321">
-        <v>4.002775620273276</v>
-      </c>
-      <c r="G42" s="321">
-        <v>4.03421527145827</v>
-      </c>
-      <c r="H42" s="321">
-        <v>3.9654925339125446</v>
-      </c>
-      <c r="I42" s="321">
-        <v>4.4637683813185038</v>
-      </c>
-      <c r="J42" s="321">
-        <v>4.077975087306922</v>
-      </c>
-      <c r="K42" s="321">
-        <v>0.2</v>
-      </c>
-      <c r="L42" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M42" s="288" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="317" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="322">
-        <v>0.98921630999999988</v>
-      </c>
-      <c r="C43" s="322">
+      <c r="B43" s="315"/>
+      <c r="C43" s="318"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="319"/>
+      <c r="F43" s="318"/>
+      <c r="G43" s="318"/>
+      <c r="H43" s="319"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="320"/>
+      <c r="M43" s="320"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="232" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="321">
+        <v>0.98921631</v>
+      </c>
+      <c r="C44" s="321">
         <v>2.7046143364191528</v>
       </c>
-      <c r="D43" s="322">
+      <c r="D44" s="321">
         <v>3.7698860001851715</v>
       </c>
-      <c r="E43" s="322">
-        <v>3.9833879408974373</v>
-      </c>
-      <c r="F43" s="322">
+      <c r="E44" s="321">
+        <v>3.9833879408974378</v>
+      </c>
+      <c r="F44" s="321">
         <v>4.002775620273276</v>
       </c>
-      <c r="G43" s="322">
+      <c r="G44" s="321">
         <v>4.03421527145827</v>
       </c>
-      <c r="H43" s="322">
-        <v>3.9654925339125442</v>
-      </c>
-      <c r="I43" s="322">
+      <c r="H44" s="321">
+        <v>3.9654925339125446</v>
+      </c>
+      <c r="I44" s="321">
         <v>4.4637683813185038</v>
       </c>
-      <c r="J43" s="322">
+      <c r="J44" s="321">
         <v>4.077975087306922</v>
       </c>
-      <c r="K43" s="322">
+      <c r="K44" s="321">
         <v>0.2</v>
       </c>
-      <c r="L43" s="323" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="323" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="317" t="s">
-        <v>207</v>
-      </c>
-      <c r="B44" s="322">
-        <v>0.98746796294791328</v>
-      </c>
-      <c r="C44" s="322">
-        <v>2.7028659893670661</v>
-      </c>
-      <c r="D44" s="322">
-        <v>3.7681376531330848</v>
-      </c>
-      <c r="E44" s="322">
-        <v>3.981639593845351</v>
-      </c>
-      <c r="F44" s="322">
-        <v>4.0010272732211893</v>
-      </c>
-      <c r="G44" s="322">
-        <v>4.032466924406183</v>
-      </c>
-      <c r="H44" s="322">
-        <v>3.9637441868604579</v>
-      </c>
-      <c r="I44" s="322">
-        <v>4.4620200342664171</v>
-      </c>
-      <c r="J44" s="322">
-        <v>4.0762267402548353</v>
-      </c>
-      <c r="K44" s="322">
-        <v>0.2</v>
-      </c>
-      <c r="L44" s="323" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="323" t="s">
-        <v>4</v>
+      <c r="L44" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M44" s="288" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45">
@@ -63266,31 +63266,31 @@
         <v>208</v>
       </c>
       <c r="B45" s="321">
-        <v>0.98698313999999987</v>
+        <v>0.98921631</v>
       </c>
       <c r="C45" s="321">
-        <v>2.7023811664191526</v>
+        <v>2.7046143364191528</v>
       </c>
       <c r="D45" s="321">
-        <v>3.7676528301851717</v>
+        <v>3.7698860001851715</v>
       </c>
       <c r="E45" s="321">
-        <v>3.9811547708974375</v>
+        <v>3.9833879408974378</v>
       </c>
       <c r="F45" s="321">
-        <v>4.0005424502732758</v>
+        <v>4.002775620273276</v>
       </c>
       <c r="G45" s="321">
-        <v>4.0319821014582695</v>
+        <v>4.03421527145827</v>
       </c>
       <c r="H45" s="321">
-        <v>3.9632593639125444</v>
+        <v>3.9654925339125446</v>
       </c>
       <c r="I45" s="321">
-        <v>4.4615352113185036</v>
+        <v>4.4637683813185038</v>
       </c>
       <c r="J45" s="321">
-        <v>4.0757419173069218</v>
+        <v>4.077975087306922</v>
       </c>
       <c r="K45" s="321">
         <v>0.2</v>
@@ -63303,134 +63303,134 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="232" t="s">
+      <c r="A46" s="317" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="321">
-        <v>1.08974456707485</v>
-      </c>
-      <c r="C46" s="321">
-        <v>2.8051425934940029</v>
-      </c>
-      <c r="D46" s="321">
-        <v>3.8704142572600215</v>
-      </c>
-      <c r="E46" s="321">
-        <v>4.0839161979722878</v>
-      </c>
-      <c r="F46" s="321">
-        <v>4.1033038773481261</v>
-      </c>
-      <c r="G46" s="321">
-        <v>4.13474352853312</v>
-      </c>
-      <c r="H46" s="321">
-        <v>4.0660207909873947</v>
-      </c>
-      <c r="I46" s="321">
-        <v>4.5642966383933539</v>
-      </c>
-      <c r="J46" s="321">
-        <v>4.1785033443817721</v>
-      </c>
-      <c r="K46" s="321">
-        <v>0.19990532544378697</v>
-      </c>
-      <c r="L46" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M46" s="288" t="s">
-        <v>170</v>
+      <c r="B46" s="322">
+        <v>0.98921630999999988</v>
+      </c>
+      <c r="C46" s="322">
+        <v>2.7046143364191528</v>
+      </c>
+      <c r="D46" s="322">
+        <v>3.7698860001851715</v>
+      </c>
+      <c r="E46" s="322">
+        <v>3.9833879408974373</v>
+      </c>
+      <c r="F46" s="322">
+        <v>4.002775620273276</v>
+      </c>
+      <c r="G46" s="322">
+        <v>4.03421527145827</v>
+      </c>
+      <c r="H46" s="322">
+        <v>3.9654925339125442</v>
+      </c>
+      <c r="I46" s="322">
+        <v>4.4637683813185038</v>
+      </c>
+      <c r="J46" s="322">
+        <v>4.077975087306922</v>
+      </c>
+      <c r="K46" s="322">
+        <v>0.2</v>
+      </c>
+      <c r="L46" s="323" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="323" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="317" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="315"/>
-      <c r="C47" s="318"/>
-      <c r="D47" s="315"/>
-      <c r="E47" s="319"/>
-      <c r="F47" s="318"/>
-      <c r="G47" s="318"/>
-      <c r="H47" s="319"/>
-      <c r="I47" s="319"/>
-      <c r="J47" s="315"/>
-      <c r="K47" s="315"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
+      <c r="B47" s="322">
+        <v>0.98746796294791328</v>
+      </c>
+      <c r="C47" s="322">
+        <v>2.7028659893670661</v>
+      </c>
+      <c r="D47" s="322">
+        <v>3.7681376531330848</v>
+      </c>
+      <c r="E47" s="322">
+        <v>3.981639593845351</v>
+      </c>
+      <c r="F47" s="322">
+        <v>4.0010272732211893</v>
+      </c>
+      <c r="G47" s="322">
+        <v>4.032466924406183</v>
+      </c>
+      <c r="H47" s="322">
+        <v>3.9637441868604579</v>
+      </c>
+      <c r="I47" s="322">
+        <v>4.4620200342664171</v>
+      </c>
+      <c r="J47" s="322">
+        <v>4.0762267402548353</v>
+      </c>
+      <c r="K47" s="322">
+        <v>0.2</v>
+      </c>
+      <c r="L47" s="323" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="323" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="232" t="s">
+      <c r="A48" s="317" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="321">
-        <v>1.4073815599999997</v>
-      </c>
-      <c r="C48" s="321">
-        <v>3.1227795864191528</v>
-      </c>
-      <c r="D48" s="321">
-        <v>4.1880512501851719</v>
-      </c>
-      <c r="E48" s="321">
-        <v>4.4015531908974372</v>
-      </c>
-      <c r="F48" s="321">
-        <v>4.4209408702732755</v>
-      </c>
-      <c r="G48" s="321">
-        <v>4.4523805214582692</v>
-      </c>
-      <c r="H48" s="321">
-        <v>4.3836577839125441</v>
-      </c>
-      <c r="I48" s="321">
-        <v>4.8819336313185033</v>
-      </c>
-      <c r="J48" s="321">
-        <v>4.4961403373069215</v>
-      </c>
-      <c r="K48" s="321">
-        <v>0.2</v>
-      </c>
-      <c r="L48" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M48" s="288" t="s">
-        <v>170</v>
-      </c>
+      <c r="B48" s="315"/>
+      <c r="C48" s="318"/>
+      <c r="D48" s="315"/>
+      <c r="E48" s="319"/>
+      <c r="F48" s="318"/>
+      <c r="G48" s="318"/>
+      <c r="H48" s="319"/>
+      <c r="I48" s="319"/>
+      <c r="J48" s="315"/>
+      <c r="K48" s="315"/>
+      <c r="L48" s="320"/>
+      <c r="M48" s="320"/>
     </row>
     <row r="49">
       <c r="A49" s="232" t="s">
         <v>212</v>
       </c>
       <c r="B49" s="321">
-        <v>3.05364568</v>
+        <v>1.4073815599999997</v>
       </c>
       <c r="C49" s="321">
-        <v>4.7690437064191524</v>
+        <v>3.1227795864191528</v>
       </c>
       <c r="D49" s="321">
-        <v>5.8343153701851715</v>
+        <v>4.1880512501851719</v>
       </c>
       <c r="E49" s="321">
-        <v>6.0478173108974378</v>
+        <v>4.4015531908974372</v>
       </c>
       <c r="F49" s="321">
-        <v>6.0672049902732752</v>
+        <v>4.4209408702732755</v>
       </c>
       <c r="G49" s="321">
-        <v>6.09864464145827</v>
+        <v>4.4523805214582692</v>
       </c>
       <c r="H49" s="321">
-        <v>6.0299219039125447</v>
+        <v>4.3836577839125441</v>
       </c>
       <c r="I49" s="321">
-        <v>6.5281977513185039</v>
+        <v>4.8819336313185033</v>
       </c>
       <c r="J49" s="321">
-        <v>6.1424044573069221</v>
+        <v>4.4961403373069215</v>
       </c>
       <c r="K49" s="321">
         <v>0.2</v>
@@ -63443,85 +63443,85 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="317" t="s">
+      <c r="A50" s="232" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="322">
+      <c r="B50" s="321">
+        <v>3.05364568</v>
+      </c>
+      <c r="C50" s="321">
+        <v>4.7690437064191524</v>
+      </c>
+      <c r="D50" s="321">
+        <v>5.8343153701851715</v>
+      </c>
+      <c r="E50" s="321">
+        <v>6.0478173108974378</v>
+      </c>
+      <c r="F50" s="321">
+        <v>6.0672049902732752</v>
+      </c>
+      <c r="G50" s="321">
+        <v>6.09864464145827</v>
+      </c>
+      <c r="H50" s="321">
+        <v>6.0299219039125447</v>
+      </c>
+      <c r="I50" s="321">
+        <v>6.5281977513185039</v>
+      </c>
+      <c r="J50" s="321">
+        <v>6.1424044573069221</v>
+      </c>
+      <c r="K50" s="321">
+        <v>0.2</v>
+      </c>
+      <c r="L50" s="288" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" s="288" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="317" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="322">
         <v>2.0058864179051605</v>
       </c>
-      <c r="C50" s="322">
+      <c r="C51" s="322">
         <v>3.7212844443243132</v>
       </c>
-      <c r="D50" s="322">
+      <c r="D51" s="322">
         <v>4.7865561080903323</v>
       </c>
-      <c r="E50" s="322">
+      <c r="E51" s="322">
         <v>5.0000580488025985</v>
       </c>
-      <c r="F50" s="322">
+      <c r="F51" s="322">
         <v>5.0194457281784359</v>
       </c>
-      <c r="G50" s="322">
+      <c r="G51" s="322">
         <v>5.0508853793634305</v>
       </c>
-      <c r="H50" s="322">
+      <c r="H51" s="322">
         <v>4.9821626418177054</v>
       </c>
-      <c r="I50" s="322">
+      <c r="I51" s="322">
         <v>5.4804384892236646</v>
       </c>
-      <c r="J50" s="322">
+      <c r="J51" s="322">
         <v>5.0946451952120828</v>
       </c>
-      <c r="K50" s="322">
+      <c r="K51" s="322">
         <v>0.2</v>
       </c>
-      <c r="L50" s="323" t="s">
+      <c r="L51" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="M50" s="323" t="s">
+      <c r="M51" s="323" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="232" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="321">
-        <v>1.10294872</v>
-      </c>
-      <c r="C51" s="321">
-        <v>2.8183467464191532</v>
-      </c>
-      <c r="D51" s="321">
-        <v>3.8836184101851718</v>
-      </c>
-      <c r="E51" s="321">
-        <v>4.0971203508974376</v>
-      </c>
-      <c r="F51" s="321">
-        <v>4.1165080302732759</v>
-      </c>
-      <c r="G51" s="321">
-        <v>4.14794768145827</v>
-      </c>
-      <c r="H51" s="321">
-        <v>4.0792249439125445</v>
-      </c>
-      <c r="I51" s="321">
-        <v>4.5775007913185046</v>
-      </c>
-      <c r="J51" s="321">
-        <v>4.1917074973069219</v>
-      </c>
-      <c r="K51" s="321">
-        <v>0.2</v>
-      </c>
-      <c r="L51" s="288" t="s">
-        <v>169</v>
-      </c>
-      <c r="M51" s="288" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="52">
@@ -64620,12 +64620,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="288" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="321">
         <v>0</v>
@@ -64663,37 +64663,37 @@
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="C14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="D14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="E14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="F14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="G14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="H14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="I14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="J14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="K14" s="321">
-        <v>24.99980768</v>
+        <v>0</v>
       </c>
       <c r="L14" s="288" t="s">
         <v>21</v>
@@ -64701,37 +64701,37 @@
     </row>
     <row r="15">
       <c r="A15" s="244" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="321">
-        <v>19.29235557</v>
+        <v>0</v>
       </c>
       <c r="C15" s="321">
-        <v>19.27225009</v>
+        <v>0</v>
       </c>
       <c r="D15" s="321">
-        <v>15.0236871</v>
+        <v>0</v>
       </c>
       <c r="E15" s="321">
-        <v>11.03143174</v>
+        <v>0</v>
       </c>
       <c r="F15" s="321">
-        <v>8.38462824</v>
+        <v>0</v>
       </c>
       <c r="G15" s="321">
-        <v>6.49957154</v>
+        <v>0</v>
       </c>
       <c r="H15" s="321">
-        <v>4.4317364999999995</v>
+        <v>0</v>
       </c>
       <c r="I15" s="321">
-        <v>3.7494741499999997</v>
+        <v>0</v>
       </c>
       <c r="J15" s="321">
-        <v>3.25369358</v>
+        <v>0</v>
       </c>
       <c r="K15" s="321">
-        <v>4.94120541</v>
+        <v>0</v>
       </c>
       <c r="L15" s="288" t="s">
         <v>21</v>
@@ -64739,37 +64739,37 @@
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="C16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="D16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="E16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="F16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="G16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="H16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="I16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="J16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="K16" s="321">
-        <v>24.999807680000004</v>
+        <v>0</v>
       </c>
       <c r="L16" s="288" t="s">
         <v>21</v>
@@ -64777,37 +64777,37 @@
     </row>
     <row r="17">
       <c r="A17" s="244" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="C17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="D17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="E17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="F17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="G17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="H17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="I17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="J17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="K17" s="321">
-        <v>0</v>
+        <v>24.99980768</v>
       </c>
       <c r="L17" s="288" t="s">
         <v>21</v>
@@ -64815,37 +64815,37 @@
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="321">
-        <v>0</v>
+        <v>19.29235557</v>
       </c>
       <c r="C18" s="321">
-        <v>0</v>
+        <v>19.27225009</v>
       </c>
       <c r="D18" s="321">
-        <v>0</v>
+        <v>15.0236871</v>
       </c>
       <c r="E18" s="321">
-        <v>0</v>
+        <v>11.03143174</v>
       </c>
       <c r="F18" s="321">
-        <v>0</v>
+        <v>8.38462824</v>
       </c>
       <c r="G18" s="321">
-        <v>0</v>
+        <v>6.49957154</v>
       </c>
       <c r="H18" s="321">
-        <v>0</v>
+        <v>4.4317364999999995</v>
       </c>
       <c r="I18" s="321">
-        <v>0</v>
+        <v>3.7494741499999997</v>
       </c>
       <c r="J18" s="321">
-        <v>0</v>
+        <v>3.25369358</v>
       </c>
       <c r="K18" s="321">
-        <v>0</v>
+        <v>4.94120541</v>
       </c>
       <c r="L18" s="288" t="s">
         <v>21</v>
@@ -64853,37 +64853,37 @@
     </row>
     <row r="19">
       <c r="A19" s="244" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="C19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="D19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="E19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="F19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="G19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="H19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="I19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="J19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="K19" s="321">
-        <v>0</v>
+        <v>24.999807680000004</v>
       </c>
       <c r="L19" s="288" t="s">
         <v>21</v>
@@ -64891,7 +64891,7 @@
     </row>
     <row r="20">
       <c r="A20" s="244" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="321">
         <v>0</v>
@@ -64924,7 +64924,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="288" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -64932,34 +64932,34 @@
         <v>135</v>
       </c>
       <c r="B21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="C21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="D21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="E21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="F21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="G21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="H21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="I21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="J21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="K21" s="321">
-        <v>17.99944093</v>
+        <v>0</v>
       </c>
       <c r="L21" s="288" t="s">
         <v>21</v>
@@ -64970,34 +64970,34 @@
         <v>136</v>
       </c>
       <c r="B22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="C22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="D22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="E22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="F22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="G22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="H22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="I22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="J22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="K22" s="321">
-        <v>9.99957523</v>
+        <v>17.99944093</v>
       </c>
       <c r="L22" s="288" t="s">
         <v>21</v>
@@ -65008,34 +65008,34 @@
         <v>137</v>
       </c>
       <c r="B23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="C23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="D23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="E23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="F23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="G23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="H23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="I23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="J23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="K23" s="321">
-        <v>0</v>
+        <v>9.99957523</v>
       </c>
       <c r="L23" s="288" t="s">
         <v>21</v>
@@ -65519,42 +65519,42 @@
         <v>125</v>
       </c>
       <c r="B44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="C44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="D44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="E44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="F44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="G44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="H44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="I44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="J44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="K44" s="321">
-        <v>0</v>
+        <v>0.0159553410982249</v>
       </c>
       <c r="L44" s="288" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="244" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="321">
         <v>0</v>
@@ -65592,37 +65592,37 @@
     </row>
     <row r="46">
       <c r="A46" s="244" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="321">
-        <v>24.99966243</v>
+        <v>0</v>
       </c>
       <c r="C46" s="321">
-        <v>24.99967132</v>
+        <v>0</v>
       </c>
       <c r="D46" s="321">
-        <v>24.99967567</v>
+        <v>0</v>
       </c>
       <c r="E46" s="321">
-        <v>24.99967556</v>
+        <v>0</v>
       </c>
       <c r="F46" s="321">
-        <v>24.9996798</v>
+        <v>0</v>
       </c>
       <c r="G46" s="321">
-        <v>24.99968398</v>
+        <v>0</v>
       </c>
       <c r="H46" s="321">
-        <v>24.999687679999997</v>
+        <v>0</v>
       </c>
       <c r="I46" s="321">
-        <v>24.99969567</v>
+        <v>0</v>
       </c>
       <c r="J46" s="321">
-        <v>24.99970344</v>
+        <v>0</v>
       </c>
       <c r="K46" s="321">
-        <v>24.99968894</v>
+        <v>0</v>
       </c>
       <c r="L46" s="288" t="s">
         <v>21</v>
@@ -65630,37 +65630,37 @@
     </row>
     <row r="47">
       <c r="A47" s="244" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B47" s="321">
-        <v>24.16674287</v>
+        <v>0</v>
       </c>
       <c r="C47" s="321">
-        <v>21.8108881</v>
+        <v>0</v>
       </c>
       <c r="D47" s="321">
-        <v>20.66815629</v>
+        <v>0</v>
       </c>
       <c r="E47" s="321">
-        <v>15.778296829999999</v>
+        <v>0</v>
       </c>
       <c r="F47" s="321">
-        <v>12.59457515</v>
+        <v>0</v>
       </c>
       <c r="G47" s="321">
-        <v>10.56037407</v>
+        <v>0</v>
       </c>
       <c r="H47" s="321">
-        <v>7.9506331999999995</v>
+        <v>0</v>
       </c>
       <c r="I47" s="321">
-        <v>6.59932617</v>
+        <v>0</v>
       </c>
       <c r="J47" s="321">
-        <v>5.80704334</v>
+        <v>0</v>
       </c>
       <c r="K47" s="321">
-        <v>11.39231862</v>
+        <v>0</v>
       </c>
       <c r="L47" s="288" t="s">
         <v>21</v>
@@ -65668,37 +65668,37 @@
     </row>
     <row r="48">
       <c r="A48" s="244" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="321">
-        <v>24.999662429999997</v>
+        <v>0</v>
       </c>
       <c r="C48" s="321">
-        <v>24.99967132</v>
+        <v>0</v>
       </c>
       <c r="D48" s="321">
-        <v>24.99967567</v>
+        <v>0</v>
       </c>
       <c r="E48" s="321">
-        <v>24.99967556</v>
+        <v>0</v>
       </c>
       <c r="F48" s="321">
-        <v>24.999679799999996</v>
+        <v>0</v>
       </c>
       <c r="G48" s="321">
-        <v>24.99968398</v>
+        <v>0</v>
       </c>
       <c r="H48" s="321">
-        <v>24.99968768</v>
+        <v>0</v>
       </c>
       <c r="I48" s="321">
-        <v>24.999695669999998</v>
+        <v>0</v>
       </c>
       <c r="J48" s="321">
-        <v>24.999703440000005</v>
+        <v>0</v>
       </c>
       <c r="K48" s="321">
-        <v>24.99968894</v>
+        <v>0</v>
       </c>
       <c r="L48" s="288" t="s">
         <v>21</v>
@@ -65706,37 +65706,37 @@
     </row>
     <row r="49">
       <c r="A49" s="244" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="321">
-        <v>0</v>
+        <v>24.99966243</v>
       </c>
       <c r="C49" s="321">
-        <v>0</v>
+        <v>24.99967132</v>
       </c>
       <c r="D49" s="321">
-        <v>0</v>
+        <v>24.99967567</v>
       </c>
       <c r="E49" s="321">
-        <v>0</v>
+        <v>24.99967556</v>
       </c>
       <c r="F49" s="321">
-        <v>0</v>
+        <v>24.9996798</v>
       </c>
       <c r="G49" s="321">
-        <v>0</v>
+        <v>24.99968398</v>
       </c>
       <c r="H49" s="321">
-        <v>0</v>
+        <v>24.999687679999997</v>
       </c>
       <c r="I49" s="321">
-        <v>0</v>
+        <v>24.99969567</v>
       </c>
       <c r="J49" s="321">
-        <v>0</v>
+        <v>24.99970344</v>
       </c>
       <c r="K49" s="321">
-        <v>0</v>
+        <v>24.99968894</v>
       </c>
       <c r="L49" s="288" t="s">
         <v>21</v>
@@ -65744,37 +65744,37 @@
     </row>
     <row r="50">
       <c r="A50" s="244" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="321">
-        <v>0</v>
+        <v>24.16674287</v>
       </c>
       <c r="C50" s="321">
-        <v>0</v>
+        <v>21.8108881</v>
       </c>
       <c r="D50" s="321">
-        <v>0</v>
+        <v>20.66815629</v>
       </c>
       <c r="E50" s="321">
-        <v>0</v>
+        <v>15.778296829999999</v>
       </c>
       <c r="F50" s="321">
-        <v>0</v>
+        <v>12.59457515</v>
       </c>
       <c r="G50" s="321">
-        <v>0</v>
+        <v>10.56037407</v>
       </c>
       <c r="H50" s="321">
-        <v>0</v>
+        <v>7.9506331999999995</v>
       </c>
       <c r="I50" s="321">
-        <v>0</v>
+        <v>6.59932617</v>
       </c>
       <c r="J50" s="321">
-        <v>0</v>
+        <v>5.80704334</v>
       </c>
       <c r="K50" s="321">
-        <v>0</v>
+        <v>11.39231862</v>
       </c>
       <c r="L50" s="288" t="s">
         <v>21</v>
@@ -65782,37 +65782,37 @@
     </row>
     <row r="51">
       <c r="A51" s="244" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="321">
-        <v>0</v>
+        <v>24.999662429999997</v>
       </c>
       <c r="C51" s="321">
-        <v>0</v>
+        <v>24.99967132</v>
       </c>
       <c r="D51" s="321">
-        <v>0</v>
+        <v>24.99967567</v>
       </c>
       <c r="E51" s="321">
-        <v>0</v>
+        <v>24.99967556</v>
       </c>
       <c r="F51" s="321">
-        <v>0</v>
+        <v>24.999679799999996</v>
       </c>
       <c r="G51" s="321">
-        <v>0</v>
+        <v>24.99968398</v>
       </c>
       <c r="H51" s="321">
-        <v>0</v>
+        <v>24.99968768</v>
       </c>
       <c r="I51" s="321">
-        <v>0</v>
+        <v>24.999695669999998</v>
       </c>
       <c r="J51" s="321">
-        <v>0</v>
+        <v>24.999703440000005</v>
       </c>
       <c r="K51" s="321">
-        <v>0</v>
+        <v>24.99968894</v>
       </c>
       <c r="L51" s="288" t="s">
         <v>21</v>
@@ -65820,40 +65820,40 @@
     </row>
     <row r="52">
       <c r="A52" s="244" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="C52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="D52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="E52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="F52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="G52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="H52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="I52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="J52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="K52" s="321">
-        <v>0.0159553410982249</v>
+        <v>0</v>
       </c>
       <c r="L52" s="288" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -65861,34 +65861,34 @@
         <v>135</v>
       </c>
       <c r="B53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="C53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="D53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="E53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="F53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="G53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="H53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="I53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="J53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="K53" s="321">
-        <v>17.99864951</v>
+        <v>0</v>
       </c>
       <c r="L53" s="288" t="s">
         <v>21</v>
@@ -65899,34 +65899,34 @@
         <v>136</v>
       </c>
       <c r="B54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="C54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="D54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="E54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="F54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="G54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="H54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="I54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="J54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="K54" s="321">
-        <v>9.9988863900000009</v>
+        <v>17.99864951</v>
       </c>
       <c r="L54" s="288" t="s">
         <v>21</v>
@@ -65937,34 +65937,34 @@
         <v>137</v>
       </c>
       <c r="B55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="C55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="D55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="E55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="F55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="G55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="H55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="I55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="J55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="K55" s="321">
-        <v>0</v>
+        <v>9.9988863900000009</v>
       </c>
       <c r="L55" s="288" t="s">
         <v>21</v>
@@ -70868,34 +70868,34 @@
         <v>124</v>
       </c>
       <c r="B9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="C9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="D9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="E9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="F9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="G9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="H9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="I9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="J9" s="321">
-        <v>1.6113</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="K9" s="334">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -70903,66 +70903,66 @@
         <v>125</v>
       </c>
       <c r="B10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="C10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="D10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="E10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="F10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="G10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="H10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="I10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="J10" s="321">
-        <v>1.6113</v>
+        <v>1.72058313650651</v>
       </c>
       <c r="K10" s="334">
-        <v>70</v>
+        <v>80.004624142295526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="244" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="C11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="D11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="E11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="F11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="G11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="H11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="I11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="J11" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.7209999999999999</v>
       </c>
       <c r="K11" s="334">
         <v>80</v>
@@ -70970,247 +70970,247 @@
     </row>
     <row r="12">
       <c r="A12" s="244" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="C12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="D12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="E12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="F12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="G12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="H12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="I12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="J12" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="K12" s="334">
-        <v>60.839013475399561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="321">
-        <v>0.90854145999999991</v>
+        <v>1.6113</v>
       </c>
       <c r="C13" s="321">
-        <v>0.89782416000000009</v>
+        <v>1.6113</v>
       </c>
       <c r="D13" s="321">
-        <v>0.8874346099999999</v>
+        <v>1.6113</v>
       </c>
       <c r="E13" s="321">
-        <v>0.84686983</v>
+        <v>1.6113</v>
       </c>
       <c r="F13" s="321">
-        <v>0.81294589000000006</v>
+        <v>1.6113</v>
       </c>
       <c r="G13" s="321">
-        <v>0.78296282</v>
+        <v>1.6113</v>
       </c>
       <c r="H13" s="321">
-        <v>0.74538664</v>
+        <v>1.6113</v>
       </c>
       <c r="I13" s="321">
-        <v>0.72768079</v>
+        <v>1.6113</v>
       </c>
       <c r="J13" s="321">
-        <v>0.71429163</v>
+        <v>1.6113</v>
       </c>
       <c r="K13" s="334">
-        <v>73.981827880206808</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="C14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="D14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="E14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="F14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="G14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="H14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="I14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="J14" s="321">
-        <v>1.5955000000000001</v>
+        <v>1.6113</v>
       </c>
       <c r="K14" s="334">
-        <v>60.839013475399561</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="244" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="C15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="D15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="E15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="F15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="G15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="H15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="I15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="J15" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="K15" s="334">
-        <v>80</v>
+        <v>60.839013475399561</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.90854145999999991</v>
       </c>
       <c r="C16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.89782416000000009</v>
       </c>
       <c r="D16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.8874346099999999</v>
       </c>
       <c r="E16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.84686983</v>
       </c>
       <c r="F16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.81294589000000006</v>
       </c>
       <c r="G16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.78296282</v>
       </c>
       <c r="H16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.74538664</v>
       </c>
       <c r="I16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.72768079</v>
       </c>
       <c r="J16" s="321">
-        <v>1.2363000000000002</v>
+        <v>0.71429163</v>
       </c>
       <c r="K16" s="334">
-        <v>80</v>
+        <v>73.981827880206808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="244" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="C17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="D17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="E17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="F17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="G17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="H17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="I17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="J17" s="321">
-        <v>1.2363000000000002</v>
+        <v>1.5955000000000001</v>
       </c>
       <c r="K17" s="334">
-        <v>80</v>
+        <v>60.839013475399561</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="C18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="D18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="E18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="F18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="G18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="H18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="I18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="J18" s="321">
-        <v>1.72058313650651</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="K18" s="334">
-        <v>80.004624142295526</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -71218,34 +71218,34 @@
         <v>135</v>
       </c>
       <c r="B19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="C19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="D19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="E19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="F19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="G19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="H19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="I19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="J19" s="321">
-        <v>1.8900000000000001</v>
+        <v>1.2363000000000002</v>
       </c>
       <c r="K19" s="334">
-        <v>66.999415343915345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -71253,34 +71253,34 @@
         <v>136</v>
       </c>
       <c r="B20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="C20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="D20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="E20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="F20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="G20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="H20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="I20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J20" s="321">
-        <v>2.4673</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="K20" s="334">
-        <v>25</v>
+        <v>66.999415343915345</v>
       </c>
     </row>
     <row r="21">
@@ -71288,34 +71288,34 @@
         <v>137</v>
       </c>
       <c r="B21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="C21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="D21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="E21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="F21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="G21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="H21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="I21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="J21" s="321">
-        <v>1.7209999999999999</v>
+        <v>2.4673</v>
       </c>
       <c r="K21" s="334">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -72750,37 +72750,37 @@
         <v>1605.34058466302</v>
       </c>
       <c r="D8" s="325">
-        <v>1623.4275076755098</v>
+        <v>1623.4300049185001</v>
       </c>
       <c r="E8" s="325">
-        <v>1639.80458865842</v>
+        <v>1639.8170369498</v>
       </c>
       <c r="F8" s="325">
-        <v>1656.7934316887101</v>
+        <v>1656.83106393023</v>
       </c>
       <c r="G8" s="325">
-        <v>1673.60349692162</v>
+        <v>1673.68223084648</v>
       </c>
       <c r="H8" s="325">
-        <v>1689.8885501737002</v>
+        <v>1690.02279433633</v>
       </c>
       <c r="I8" s="325">
-        <v>1705.77362996551</v>
+        <v>1705.97588759515</v>
       </c>
       <c r="J8" s="325">
-        <v>1721.24874894872</v>
+        <v>1721.5313159332002</v>
       </c>
       <c r="K8" s="325">
-        <v>1736.53236289293</v>
+        <v>1736.9074471367098</v>
       </c>
       <c r="L8" s="336">
-        <v>1749.71858477924</v>
+        <v>1750.1987873687199</v>
       </c>
       <c r="M8" s="336">
-        <v>1766.44707890265</v>
+        <v>1767.04491891139</v>
       </c>
       <c r="N8" s="336">
-        <v>1781.09915800321</v>
+        <v>1781.82712844909</v>
       </c>
     </row>
     <row r="9">
@@ -72794,37 +72794,37 @@
         <v>12746.8683884651</v>
       </c>
       <c r="D9" s="325">
-        <v>12890.48378659</v>
+        <v>12890.5036154214</v>
       </c>
       <c r="E9" s="325">
-        <v>13020.5225446398</v>
+        <v>13020.6213876724</v>
       </c>
       <c r="F9" s="325">
-        <v>13155.4188702222</v>
+        <v>13155.7176811003</v>
       </c>
       <c r="G9" s="325">
-        <v>13288.895648404101</v>
+        <v>13289.5208185315</v>
       </c>
       <c r="H9" s="325">
-        <v>13418.2036796633</v>
+        <v>13419.2696171281</v>
       </c>
       <c r="I9" s="325">
-        <v>13544.3358060052</v>
+        <v>13545.941790062601</v>
       </c>
       <c r="J9" s="325">
-        <v>13667.2127249963</v>
+        <v>13669.456388550701</v>
       </c>
       <c r="K9" s="325">
-        <v>13788.5690386087</v>
+        <v>13791.547315951</v>
       </c>
       <c r="L9" s="336">
-        <v>13893.27145287</v>
+        <v>13897.0844002697</v>
       </c>
       <c r="M9" s="336">
-        <v>14026.1005328581</v>
+        <v>14030.8475553787</v>
       </c>
       <c r="N9" s="336">
-        <v>14142.4422772185</v>
+        <v>14148.2225730341</v>
       </c>
     </row>
     <row r="10">
@@ -72838,37 +72838,37 @@
         <v>14352.208973128101</v>
       </c>
       <c r="D10" s="337">
-        <v>14513.9112942656</v>
+        <v>14513.9336203399</v>
       </c>
       <c r="E10" s="337">
-        <v>14660.3271332982</v>
+        <v>14660.4384246222</v>
       </c>
       <c r="F10" s="337">
-        <v>14812.2123019109</v>
+        <v>14812.5487450305</v>
       </c>
       <c r="G10" s="337">
-        <v>14962.499145325699</v>
+        <v>14963.2030493779</v>
       </c>
       <c r="H10" s="337">
-        <v>15108.092229837</v>
+        <v>15109.2924114645</v>
       </c>
       <c r="I10" s="337">
-        <v>15250.109435970699</v>
+        <v>15251.917677657699</v>
       </c>
       <c r="J10" s="337">
-        <v>15388.461473945099</v>
+        <v>15390.9877044839</v>
       </c>
       <c r="K10" s="337">
-        <v>15525.101401501599</v>
+        <v>15528.4547630878</v>
       </c>
       <c r="L10" s="338">
-        <v>15642.9900376493</v>
+        <v>15647.2831876384</v>
       </c>
       <c r="M10" s="338">
-        <v>15792.5476117607</v>
+        <v>15797.892474290102</v>
       </c>
       <c r="N10" s="338">
-        <v>15923.5414352217</v>
+        <v>15930.0497014832</v>
       </c>
     </row>
     <row r="11">
@@ -72922,12 +72922,12 @@
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" s="325">
         <v>14588</v>
@@ -72971,7 +72971,7 @@
     </row>
     <row r="15">
       <c r="A15" s="267" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" s="337">
         <v>14588</v>
@@ -73015,7 +73015,7 @@
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" s="325">
         <v>500</v>
@@ -73343,17 +73343,17 @@
     </row>
     <row r="27">
       <c r="A27" s="244" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="244" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="244" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B29" s="325">
         <v>891</v>
@@ -73397,7 +73397,7 @@
     </row>
     <row r="30">
       <c r="A30" s="244" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B30" s="325">
         <v>1954</v>
@@ -73441,7 +73441,7 @@
     </row>
     <row r="31">
       <c r="A31" s="267" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B31" s="337">
         <v>2845</v>
@@ -73485,7 +73485,7 @@
     </row>
     <row r="32">
       <c r="A32" s="244" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="325">
         <v>5241</v>
@@ -73529,12 +73529,12 @@
     </row>
     <row r="33">
       <c r="A33" s="244" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="244" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B34" s="325">
         <v>1799</v>
@@ -73578,12 +73578,12 @@
     </row>
     <row r="35">
       <c r="A35" s="244" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="244" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B36" s="325">
         <v>66335</v>
@@ -73627,7 +73627,7 @@
     </row>
     <row r="37">
       <c r="A37" s="244" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B37" s="325">
         <v>572.000000000001</v>
@@ -73671,7 +73671,7 @@
     </row>
     <row r="38">
       <c r="A38" s="267" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B38" s="337">
         <v>66907</v>
@@ -73715,7 +73715,7 @@
     </row>
     <row r="39">
       <c r="A39" s="267" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B39" s="337">
         <v>68706</v>
@@ -73759,12 +73759,12 @@
     </row>
     <row r="40">
       <c r="A40" s="244" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="244" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B41" s="325">
         <v>8994.00000000001</v>
@@ -73808,7 +73808,7 @@
     </row>
     <row r="42">
       <c r="A42" s="244" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B42" s="325">
         <v>624</v>
@@ -73852,7 +73852,7 @@
     </row>
     <row r="43">
       <c r="A43" s="267" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B43" s="337">
         <v>9618.00000000001</v>
@@ -73896,7 +73896,7 @@
     </row>
     <row r="44">
       <c r="A44" s="267" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B44" s="337">
         <v>86410</v>
@@ -73940,7 +73940,7 @@
     </row>
     <row r="45">
       <c r="A45" s="244" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B45" s="325">
         <v>917</v>
@@ -73984,7 +73984,7 @@
     </row>
     <row r="46">
       <c r="A46" s="244" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B46" s="325">
         <v>4225</v>
@@ -74028,12 +74028,12 @@
     </row>
     <row r="47">
       <c r="A47" s="244" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="244" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B48" s="325">
         <v>6302.00000000001</v>
@@ -74077,7 +74077,7 @@
     </row>
     <row r="49">
       <c r="A49" s="244" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" s="325">
         <v>3768</v>
@@ -74121,7 +74121,7 @@
     </row>
     <row r="50">
       <c r="A50" s="267" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B50" s="337">
         <v>10070</v>
@@ -74165,7 +74165,7 @@
     </row>
     <row r="51">
       <c r="A51" s="244" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B51" s="325">
         <v>6</v>
@@ -74443,37 +74443,37 @@
         <v>144113.208973128</v>
       </c>
       <c r="D58" s="337">
-        <v>144274.911294266</v>
+        <v>144274.93362034</v>
       </c>
       <c r="E58" s="337">
-        <v>144421.327133298</v>
+        <v>144421.438424622</v>
       </c>
       <c r="F58" s="337">
-        <v>144573.212301911</v>
+        <v>144573.548745031</v>
       </c>
       <c r="G58" s="337">
-        <v>144723.499145326</v>
+        <v>144724.203049378</v>
       </c>
       <c r="H58" s="337">
-        <v>144869.092229837</v>
+        <v>144870.292411464</v>
       </c>
       <c r="I58" s="337">
-        <v>145011.10943597098</v>
+        <v>145012.917677658</v>
       </c>
       <c r="J58" s="337">
-        <v>145149.461473945</v>
+        <v>145151.987704484</v>
       </c>
       <c r="K58" s="337">
-        <v>145286.101401502</v>
+        <v>145289.454763088</v>
       </c>
       <c r="L58" s="338">
-        <v>145403.990037649</v>
+        <v>145408.283187638</v>
       </c>
       <c r="M58" s="338">
-        <v>145553.547611761</v>
+        <v>145558.89247429</v>
       </c>
       <c r="N58" s="338">
-        <v>145684.541435222</v>
+        <v>145691.04970148302</v>
       </c>
     </row>
     <row r="59">
